--- a/Coverage Survey/Burundi/BI_Couverture_202106.xlsx
+++ b/Coverage Survey/Burundi/BI_Couverture_202106.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Burkina Faso\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burundi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A65BC-72F1-4F79-9908-BDB21467415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D77DC5-4E9C-4AD7-A309-44188BA12DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1014,7 +1014,7 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>concat(${colline_id},'-',once(substr(random(),3,8)),'-',once(substr(random(),3,6)))</t>
+    <t>concat(${colline_id},'-',substr(random(),3,8),'-',substr(random(),3,6))</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1547,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
